--- a/data/Тест по самостоятельной работе №1 (Общая экология 2021)(1-108).xlsx
+++ b/data/Тест по самостоятельной работе №1 (Общая экология 2021)(1-108).xlsx
@@ -351,15 +351,59 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -374,37 +418,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -418,16 +440,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,59 +456,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -509,8 +471,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,133 +518,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,43 +680,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,35 +714,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,11 +736,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,170 +801,157 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,8 +1294,8 @@
   <sheetPr/>
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2123,7 +2116,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:2">

--- a/data/Тест по самостоятельной работе №1 (Общая экология 2021)(1-108).xlsx
+++ b/data/Тест по самостоятельной работе №1 (Общая экология 2021)(1-108).xlsx
@@ -351,10 +351,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -366,106 +366,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,14 +389,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,6 +463,51 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -518,79 +518,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,97 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,23 +715,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,24 +736,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -780,6 +747,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,18 +788,31 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,137 +821,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,8 +1294,8 @@
   <sheetPr/>
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2068,7 +2068,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:2">

--- a/data/Тест по самостоятельной работе №1 (Общая экология 2021)(1-108).xlsx
+++ b/data/Тест по самостоятельной работе №1 (Общая экология 2021)(1-108).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>st090259@student.spbu.ru</t>
   </si>
   <si>
-    <t>st061423@ad.pu.ru</t>
+    <t>st061423@student.spbu.ru</t>
   </si>
   <si>
     <t>st084860@student.spbu.ru</t>
@@ -351,15 +351,67 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF5C6993"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -372,11 +424,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,10 +462,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,52 +480,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,10 +501,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,29 +514,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -518,19 +524,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,163 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,17 +727,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,26 +747,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,6 +776,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -812,7 +818,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,134 +836,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,8 +1301,8 @@
   <sheetPr/>
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1464,7 +1471,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21">
